--- a/Ergebnisse_Teil_1/Study_15_10_2025_Sobol_Modell_1.2_KS_Holdout_seed_999/metrics/Trial_349__Reeval_Sobol_Modell_1.2.xlsx
+++ b/Ergebnisse_Teil_1/Study_15_10_2025_Sobol_Modell_1.2_KS_Holdout_seed_999/metrics/Trial_349__Reeval_Sobol_Modell_1.2.xlsx
@@ -6127,22 +6127,22 @@
                   <c:v>0.8451161980628967</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>-0.9465475082397461</c:v>
+                  <c:v>-0.9465504288673401</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>93.25349426269531</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>56.95106506347656</c:v>
+                  <c:v>56.95107650756836</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>95.17078399658203</c:v>
+                  <c:v>95.1707763671875</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>-1.087015151977539</c:v>
+                  <c:v>-1.0870121717453</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>-1.555623531341553</c:v>
+                  <c:v>-1.555626511573792</c:v>
                 </c:pt>
                 <c:pt idx="9">
                   <c:v>95.67047882080078</c:v>
@@ -6151,10 +6151,10 @@
                   <c:v>54.72322082519531</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>88.41690826416016</c:v>
+                  <c:v>88.41692352294922</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>0.7841321229934692</c:v>
+                  <c:v>0.7841292023658752</c:v>
                 </c:pt>
                 <c:pt idx="13">
                   <c:v>94.53544616699219</c:v>
@@ -6163,22 +6163,22 @@
                   <c:v>-1.728363156318665</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>-1.423775196075439</c:v>
+                  <c:v>-1.423784017562866</c:v>
                 </c:pt>
                 <c:pt idx="16">
                   <c:v>-0.9177061319351196</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>96.99819946289062</c:v>
+                  <c:v>96.99818420410156</c:v>
                 </c:pt>
                 <c:pt idx="18">
                   <c:v>62.60699844360352</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>-1.501139163970947</c:v>
+                  <c:v>-1.501142144203186</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>93.95629119873047</c:v>
+                  <c:v>93.956298828125</c:v>
                 </c:pt>
                 <c:pt idx="21">
                   <c:v>96.09492492675781</c:v>
@@ -6190,61 +6190,61 @@
                   <c:v>93.59890747070312</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>-1.31785786151886</c:v>
+                  <c:v>-1.317854881286621</c:v>
                 </c:pt>
                 <c:pt idx="25">
                   <c:v>93.00634765625</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>63.69058227539062</c:v>
+                  <c:v>63.69057083129883</c:v>
                 </c:pt>
                 <c:pt idx="27">
                   <c:v>74.64480590820312</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>-0.98603355884552</c:v>
+                  <c:v>-0.9860305786132812</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>14.09819793701172</c:v>
+                  <c:v>14.09818840026855</c:v>
                 </c:pt>
                 <c:pt idx="30">
                   <c:v>93.87123870849609</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>-2.230575323104858</c:v>
+                  <c:v>-2.230569362640381</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>-1.637611746788025</c:v>
+                  <c:v>-1.637614727020264</c:v>
                 </c:pt>
                 <c:pt idx="33">
                   <c:v>-1.673846483230591</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>-1.687524914741516</c:v>
+                  <c:v>-1.687527775764465</c:v>
                 </c:pt>
                 <c:pt idx="35">
                   <c:v>94.03671264648438</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>58.41725158691406</c:v>
+                  <c:v>58.41725921630859</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>-1.211869955062866</c:v>
+                  <c:v>-1.211875796318054</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>-1.226092219352722</c:v>
+                  <c:v>-1.226089239120483</c:v>
                 </c:pt>
                 <c:pt idx="39">
                   <c:v>97.47338104248047</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>40.90480422973633</c:v>
+                  <c:v>40.90473175048828</c:v>
                 </c:pt>
                 <c:pt idx="41">
                   <c:v>91.98317718505859</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>-1.660412073135376</c:v>
+                  <c:v>-1.660417914390564</c:v>
                 </c:pt>
                 <c:pt idx="43">
                   <c:v>61.49248886108398</c:v>
@@ -6256,7 +6256,7 @@
                   <c:v>-1.723345041275024</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>-1.41384482383728</c:v>
+                  <c:v>-1.413850784301758</c:v>
                 </c:pt>
                 <c:pt idx="47">
                   <c:v>93.68535614013672</c:v>
@@ -6265,43 +6265,43 @@
                   <c:v>-0.03519406542181969</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>96.051025390625</c:v>
+                  <c:v>96.05101013183594</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>9.82607364654541</c:v>
+                  <c:v>9.826076507568359</c:v>
                 </c:pt>
                 <c:pt idx="51">
-                  <c:v>7.472274780273438</c:v>
+                  <c:v>7.472298145294189</c:v>
                 </c:pt>
                 <c:pt idx="52">
                   <c:v>96.03136444091797</c:v>
                 </c:pt>
                 <c:pt idx="53">
-                  <c:v>2.807408809661865</c:v>
+                  <c:v>2.807394027709961</c:v>
                 </c:pt>
                 <c:pt idx="54">
-                  <c:v>93.47012329101562</c:v>
+                  <c:v>93.47013854980469</c:v>
                 </c:pt>
                 <c:pt idx="55">
-                  <c:v>46.04702377319336</c:v>
+                  <c:v>46.04702758789062</c:v>
                 </c:pt>
                 <c:pt idx="56">
                   <c:v>88.02797698974609</c:v>
                 </c:pt>
                 <c:pt idx="57">
-                  <c:v>-2.058632373809814</c:v>
+                  <c:v>-2.058635234832764</c:v>
                 </c:pt>
                 <c:pt idx="58">
-                  <c:v>13.86401748657227</c:v>
+                  <c:v>13.86403560638428</c:v>
                 </c:pt>
                 <c:pt idx="59">
-                  <c:v>80.65341186523438</c:v>
+                  <c:v>80.65340423583984</c:v>
                 </c:pt>
                 <c:pt idx="60">
-                  <c:v>-1.721819400787354</c:v>
+                  <c:v>-1.721822381019592</c:v>
                 </c:pt>
                 <c:pt idx="61">
-                  <c:v>-1.672547101974487</c:v>
+                  <c:v>-1.672550082206726</c:v>
                 </c:pt>
                 <c:pt idx="62">
                   <c:v>93.48184967041016</c:v>
@@ -6310,7 +6310,7 @@
                   <c:v>-1.649520516395569</c:v>
                 </c:pt>
                 <c:pt idx="64">
-                  <c:v>93.17578125</c:v>
+                  <c:v>93.17576599121094</c:v>
                 </c:pt>
                 <c:pt idx="65">
                   <c:v>-2.383410215377808</c:v>
@@ -6319,70 +6319,70 @@
                   <c:v>-1.759291768074036</c:v>
                 </c:pt>
                 <c:pt idx="67">
-                  <c:v>-1.38880455493927</c:v>
+                  <c:v>-1.388813376426697</c:v>
                 </c:pt>
                 <c:pt idx="68">
-                  <c:v>53.57157135009766</c:v>
+                  <c:v>53.57158660888672</c:v>
                 </c:pt>
                 <c:pt idx="69">
-                  <c:v>79.71920013427734</c:v>
+                  <c:v>79.71916961669922</c:v>
                 </c:pt>
                 <c:pt idx="70">
                   <c:v>93.96245574951172</c:v>
                 </c:pt>
                 <c:pt idx="71">
-                  <c:v>95.65171813964844</c:v>
+                  <c:v>95.6517333984375</c:v>
                 </c:pt>
                 <c:pt idx="72">
                   <c:v>93.75080871582031</c:v>
                 </c:pt>
                 <c:pt idx="73">
-                  <c:v>-0.3885692954063416</c:v>
+                  <c:v>-0.3885663449764252</c:v>
                 </c:pt>
                 <c:pt idx="74">
                   <c:v>93.55474090576172</c:v>
                 </c:pt>
                 <c:pt idx="75">
-                  <c:v>0.836029589176178</c:v>
+                  <c:v>0.8360413312911987</c:v>
                 </c:pt>
                 <c:pt idx="76">
-                  <c:v>97.75707244873047</c:v>
+                  <c:v>97.75708770751953</c:v>
                 </c:pt>
                 <c:pt idx="77">
                   <c:v>93.60662841796875</c:v>
                 </c:pt>
                 <c:pt idx="78">
-                  <c:v>93.36888885498047</c:v>
+                  <c:v>93.36888122558594</c:v>
                 </c:pt>
                 <c:pt idx="79">
-                  <c:v>96.72145080566406</c:v>
+                  <c:v>96.72146606445312</c:v>
                 </c:pt>
                 <c:pt idx="80">
-                  <c:v>39.27579498291016</c:v>
+                  <c:v>39.27577209472656</c:v>
                 </c:pt>
                 <c:pt idx="81">
-                  <c:v>-0.8456746935844421</c:v>
+                  <c:v>-0.8456717729568481</c:v>
                 </c:pt>
                 <c:pt idx="82">
-                  <c:v>-1.705753922462463</c:v>
+                  <c:v>-1.705759882926941</c:v>
                 </c:pt>
                 <c:pt idx="83">
-                  <c:v>87.42335510253906</c:v>
+                  <c:v>87.42336273193359</c:v>
                 </c:pt>
                 <c:pt idx="84">
                   <c:v>94.53935241699219</c:v>
                 </c:pt>
                 <c:pt idx="85">
-                  <c:v>93.52711486816406</c:v>
+                  <c:v>93.52710723876953</c:v>
                 </c:pt>
                 <c:pt idx="86">
-                  <c:v>-1.435278177261353</c:v>
+                  <c:v>-1.435272336006165</c:v>
                 </c:pt>
                 <c:pt idx="87">
-                  <c:v>-1.839698314666748</c:v>
+                  <c:v>-1.83969247341156</c:v>
                 </c:pt>
                 <c:pt idx="88">
-                  <c:v>-1.727151989936829</c:v>
+                  <c:v>-1.727146148681641</c:v>
                 </c:pt>
                 <c:pt idx="89">
                   <c:v>91.56724548339844</c:v>
@@ -6403,16 +6403,16 @@
                   <c:v>67.19947814941406</c:v>
                 </c:pt>
                 <c:pt idx="95">
-                  <c:v>-0.7551114559173584</c:v>
+                  <c:v>-0.7551055550575256</c:v>
                 </c:pt>
                 <c:pt idx="96">
-                  <c:v>87.55779266357422</c:v>
+                  <c:v>87.55780029296875</c:v>
                 </c:pt>
                 <c:pt idx="97">
                   <c:v>96.77549743652344</c:v>
                 </c:pt>
                 <c:pt idx="98">
-                  <c:v>-2.383436679840088</c:v>
+                  <c:v>-2.383439540863037</c:v>
                 </c:pt>
                 <c:pt idx="99">
                   <c:v>93.76947784423828</c:v>
@@ -6421,7 +6421,7 @@
                   <c:v>-1.175238370895386</c:v>
                 </c:pt>
                 <c:pt idx="101">
-                  <c:v>-2.284903764724731</c:v>
+                  <c:v>-2.28490686416626</c:v>
                 </c:pt>
                 <c:pt idx="102">
                   <c:v>72.03488922119141</c:v>
@@ -7215,7 +7215,7 @@
         <v>0</v>
       </c>
       <c r="F5">
-        <v>-0.9465475082397461</v>
+        <v>-0.9465504288673401</v>
       </c>
       <c r="G5">
         <v>100</v>
@@ -7279,7 +7279,7 @@
         <v>84.02330000000001</v>
       </c>
       <c r="F7">
-        <v>56.95106506347656</v>
+        <v>56.95107650756836</v>
       </c>
       <c r="G7">
         <v>100</v>
@@ -7311,7 +7311,7 @@
         <v>98.1893</v>
       </c>
       <c r="F8">
-        <v>95.17078399658203</v>
+        <v>95.1707763671875</v>
       </c>
     </row>
     <row r="9" spans="1:19">
@@ -7331,7 +7331,7 @@
         <v>0</v>
       </c>
       <c r="F9">
-        <v>-1.087015151977539</v>
+        <v>-1.0870121717453</v>
       </c>
     </row>
     <row r="10" spans="1:19">
@@ -7351,7 +7351,7 @@
         <v>34.1367</v>
       </c>
       <c r="F10">
-        <v>-1.555623531341553</v>
+        <v>-1.555626511573792</v>
       </c>
     </row>
     <row r="11" spans="1:19">
@@ -7411,7 +7411,7 @@
         <v>84.36620000000001</v>
       </c>
       <c r="F13">
-        <v>88.41690826416016</v>
+        <v>88.41692352294922</v>
       </c>
     </row>
     <row r="14" spans="1:19">
@@ -7431,7 +7431,7 @@
         <v>0</v>
       </c>
       <c r="F14">
-        <v>0.7841321229934692</v>
+        <v>0.7841292023658752</v>
       </c>
     </row>
     <row r="15" spans="1:19">
@@ -7491,7 +7491,7 @@
         <v>26.9346</v>
       </c>
       <c r="F17">
-        <v>-1.423775196075439</v>
+        <v>-1.423784017562866</v>
       </c>
     </row>
     <row r="18" spans="1:6">
@@ -7531,7 +7531,7 @@
         <v>95.9807</v>
       </c>
       <c r="F19">
-        <v>96.99819946289062</v>
+        <v>96.99818420410156</v>
       </c>
     </row>
     <row r="20" spans="1:6">
@@ -7571,7 +7571,7 @@
         <v>0</v>
       </c>
       <c r="F21">
-        <v>-1.501139163970947</v>
+        <v>-1.501142144203186</v>
       </c>
     </row>
     <row r="22" spans="1:6">
@@ -7591,7 +7591,7 @@
         <v>91.50530000000001</v>
       </c>
       <c r="F22">
-        <v>93.95629119873047</v>
+        <v>93.956298828125</v>
       </c>
     </row>
     <row r="23" spans="1:6">
@@ -7671,7 +7671,7 @@
         <v>0</v>
       </c>
       <c r="F26">
-        <v>-1.31785786151886</v>
+        <v>-1.317854881286621</v>
       </c>
     </row>
     <row r="27" spans="1:6">
@@ -7711,7 +7711,7 @@
         <v>93.2831</v>
       </c>
       <c r="F28">
-        <v>63.69058227539062</v>
+        <v>63.69057083129883</v>
       </c>
     </row>
     <row r="29" spans="1:6">
@@ -7751,7 +7751,7 @@
         <v>0</v>
       </c>
       <c r="F30">
-        <v>-0.98603355884552</v>
+        <v>-0.9860305786132812</v>
       </c>
     </row>
     <row r="31" spans="1:6">
@@ -7771,7 +7771,7 @@
         <v>0</v>
       </c>
       <c r="F31">
-        <v>14.09819793701172</v>
+        <v>14.09818840026855</v>
       </c>
     </row>
     <row r="32" spans="1:6">
@@ -7811,7 +7811,7 @@
         <v>0</v>
       </c>
       <c r="F33">
-        <v>-2.230575323104858</v>
+        <v>-2.230569362640381</v>
       </c>
     </row>
     <row r="34" spans="1:6">
@@ -7831,7 +7831,7 @@
         <v>0</v>
       </c>
       <c r="F34">
-        <v>-1.637611746788025</v>
+        <v>-1.637614727020264</v>
       </c>
     </row>
     <row r="35" spans="1:6">
@@ -7871,7 +7871,7 @@
         <v>0</v>
       </c>
       <c r="F36">
-        <v>-1.687524914741516</v>
+        <v>-1.687527775764465</v>
       </c>
     </row>
     <row r="37" spans="1:6">
@@ -7911,7 +7911,7 @@
         <v>0</v>
       </c>
       <c r="F38">
-        <v>58.41725158691406</v>
+        <v>58.41725921630859</v>
       </c>
     </row>
     <row r="39" spans="1:6">
@@ -7931,7 +7931,7 @@
         <v>0</v>
       </c>
       <c r="F39">
-        <v>-1.211869955062866</v>
+        <v>-1.211875796318054</v>
       </c>
     </row>
     <row r="40" spans="1:6">
@@ -7951,7 +7951,7 @@
         <v>0</v>
       </c>
       <c r="F40">
-        <v>-1.226092219352722</v>
+        <v>-1.226089239120483</v>
       </c>
     </row>
     <row r="41" spans="1:6">
@@ -7991,7 +7991,7 @@
         <v>56.5406</v>
       </c>
       <c r="F42">
-        <v>40.90480422973633</v>
+        <v>40.90473175048828</v>
       </c>
     </row>
     <row r="43" spans="1:6">
@@ -8031,7 +8031,7 @@
         <v>0</v>
       </c>
       <c r="F44">
-        <v>-1.660412073135376</v>
+        <v>-1.660417914390564</v>
       </c>
     </row>
     <row r="45" spans="1:6">
@@ -8111,7 +8111,7 @@
         <v>0</v>
       </c>
       <c r="F48">
-        <v>-1.41384482383728</v>
+        <v>-1.413850784301758</v>
       </c>
     </row>
     <row r="49" spans="1:6">
@@ -8171,7 +8171,7 @@
         <v>94.2983</v>
       </c>
       <c r="F51">
-        <v>96.051025390625</v>
+        <v>96.05101013183594</v>
       </c>
     </row>
     <row r="52" spans="1:6">
@@ -8191,7 +8191,7 @@
         <v>47.7787</v>
       </c>
       <c r="F52">
-        <v>9.82607364654541</v>
+        <v>9.826076507568359</v>
       </c>
     </row>
     <row r="53" spans="1:6">
@@ -8211,7 +8211,7 @@
         <v>44.5448</v>
       </c>
       <c r="F53">
-        <v>7.472274780273438</v>
+        <v>7.472298145294189</v>
       </c>
     </row>
     <row r="54" spans="1:6">
@@ -8251,7 +8251,7 @@
         <v>0</v>
       </c>
       <c r="F55">
-        <v>2.807408809661865</v>
+        <v>2.807394027709961</v>
       </c>
     </row>
     <row r="56" spans="1:6">
@@ -8271,7 +8271,7 @@
         <v>42.5481</v>
       </c>
       <c r="F56">
-        <v>93.47012329101562</v>
+        <v>93.47013854980469</v>
       </c>
     </row>
     <row r="57" spans="1:6">
@@ -8291,7 +8291,7 @@
         <v>39.8962</v>
       </c>
       <c r="F57">
-        <v>46.04702377319336</v>
+        <v>46.04702758789062</v>
       </c>
     </row>
     <row r="58" spans="1:6">
@@ -8331,7 +8331,7 @@
         <v>0</v>
       </c>
       <c r="F59">
-        <v>-2.058632373809814</v>
+        <v>-2.058635234832764</v>
       </c>
     </row>
     <row r="60" spans="1:6">
@@ -8351,7 +8351,7 @@
         <v>34.2752</v>
       </c>
       <c r="F60">
-        <v>13.86401748657227</v>
+        <v>13.86403560638428</v>
       </c>
     </row>
     <row r="61" spans="1:6">
@@ -8371,7 +8371,7 @@
         <v>56.4807</v>
       </c>
       <c r="F61">
-        <v>80.65341186523438</v>
+        <v>80.65340423583984</v>
       </c>
     </row>
     <row r="62" spans="1:6">
@@ -8391,7 +8391,7 @@
         <v>0</v>
       </c>
       <c r="F62">
-        <v>-1.721819400787354</v>
+        <v>-1.721822381019592</v>
       </c>
     </row>
     <row r="63" spans="1:6">
@@ -8411,7 +8411,7 @@
         <v>0</v>
       </c>
       <c r="F63">
-        <v>-1.672547101974487</v>
+        <v>-1.672550082206726</v>
       </c>
     </row>
     <row r="64" spans="1:6">
@@ -8471,7 +8471,7 @@
         <v>93.4378</v>
       </c>
       <c r="F66">
-        <v>93.17578125</v>
+        <v>93.17576599121094</v>
       </c>
     </row>
     <row r="67" spans="1:6">
@@ -8531,7 +8531,7 @@
         <v>0</v>
       </c>
       <c r="F69">
-        <v>-1.38880455493927</v>
+        <v>-1.388813376426697</v>
       </c>
     </row>
     <row r="70" spans="1:6">
@@ -8551,7 +8551,7 @@
         <v>57.4947</v>
       </c>
       <c r="F70">
-        <v>53.57157135009766</v>
+        <v>53.57158660888672</v>
       </c>
     </row>
     <row r="71" spans="1:6">
@@ -8571,7 +8571,7 @@
         <v>94.7551</v>
       </c>
       <c r="F71">
-        <v>79.71920013427734</v>
+        <v>79.71916961669922</v>
       </c>
     </row>
     <row r="72" spans="1:6">
@@ -8611,7 +8611,7 @@
         <v>89.2906</v>
       </c>
       <c r="F73">
-        <v>95.65171813964844</v>
+        <v>95.6517333984375</v>
       </c>
     </row>
     <row r="74" spans="1:6">
@@ -8651,7 +8651,7 @@
         <v>0</v>
       </c>
       <c r="F75">
-        <v>-0.3885692954063416</v>
+        <v>-0.3885663449764252</v>
       </c>
     </row>
     <row r="76" spans="1:6">
@@ -8691,7 +8691,7 @@
         <v>0</v>
       </c>
       <c r="F77">
-        <v>0.836029589176178</v>
+        <v>0.8360413312911987</v>
       </c>
     </row>
     <row r="78" spans="1:6">
@@ -8711,7 +8711,7 @@
         <v>97.7385</v>
       </c>
       <c r="F78">
-        <v>97.75707244873047</v>
+        <v>97.75708770751953</v>
       </c>
     </row>
     <row r="79" spans="1:6">
@@ -8751,7 +8751,7 @@
         <v>90.54819999999999</v>
       </c>
       <c r="F80">
-        <v>93.36888885498047</v>
+        <v>93.36888122558594</v>
       </c>
     </row>
     <row r="81" spans="1:6">
@@ -8771,7 +8771,7 @@
         <v>98.0264</v>
       </c>
       <c r="F81">
-        <v>96.72145080566406</v>
+        <v>96.72146606445312</v>
       </c>
     </row>
     <row r="82" spans="1:6">
@@ -8791,7 +8791,7 @@
         <v>59.3491</v>
       </c>
       <c r="F82">
-        <v>39.27579498291016</v>
+        <v>39.27577209472656</v>
       </c>
     </row>
     <row r="83" spans="1:6">
@@ -8811,7 +8811,7 @@
         <v>0</v>
       </c>
       <c r="F83">
-        <v>-0.8456746935844421</v>
+        <v>-0.8456717729568481</v>
       </c>
     </row>
     <row r="84" spans="1:6">
@@ -8831,7 +8831,7 @@
         <v>0</v>
       </c>
       <c r="F84">
-        <v>-1.705753922462463</v>
+        <v>-1.705759882926941</v>
       </c>
     </row>
     <row r="85" spans="1:6">
@@ -8851,7 +8851,7 @@
         <v>80.0817</v>
       </c>
       <c r="F85">
-        <v>87.42335510253906</v>
+        <v>87.42336273193359</v>
       </c>
     </row>
     <row r="86" spans="1:6">
@@ -8891,7 +8891,7 @@
         <v>91.53700000000001</v>
       </c>
       <c r="F87">
-        <v>93.52711486816406</v>
+        <v>93.52710723876953</v>
       </c>
     </row>
     <row r="88" spans="1:6">
@@ -8911,7 +8911,7 @@
         <v>0</v>
       </c>
       <c r="F88">
-        <v>-1.435278177261353</v>
+        <v>-1.435272336006165</v>
       </c>
     </row>
     <row r="89" spans="1:6">
@@ -8931,7 +8931,7 @@
         <v>0</v>
       </c>
       <c r="F89">
-        <v>-1.839698314666748</v>
+        <v>-1.83969247341156</v>
       </c>
     </row>
     <row r="90" spans="1:6">
@@ -8951,7 +8951,7 @@
         <v>0</v>
       </c>
       <c r="F90">
-        <v>-1.727151989936829</v>
+        <v>-1.727146148681641</v>
       </c>
     </row>
     <row r="91" spans="1:6">
@@ -9091,7 +9091,7 @@
         <v>0</v>
       </c>
       <c r="F97">
-        <v>-0.7551114559173584</v>
+        <v>-0.7551055550575256</v>
       </c>
     </row>
     <row r="98" spans="1:6">
@@ -9111,7 +9111,7 @@
         <v>91.6399</v>
       </c>
       <c r="F98">
-        <v>87.55779266357422</v>
+        <v>87.55780029296875</v>
       </c>
     </row>
     <row r="99" spans="1:6">
@@ -9151,7 +9151,7 @@
         <v>0</v>
       </c>
       <c r="F100">
-        <v>-2.383436679840088</v>
+        <v>-2.383439540863037</v>
       </c>
     </row>
     <row r="101" spans="1:6">
@@ -9211,7 +9211,7 @@
         <v>0</v>
       </c>
       <c r="F103">
-        <v>-2.284903764724731</v>
+        <v>-2.28490686416626</v>
       </c>
     </row>
     <row r="104" spans="1:6">
